--- a/IPL/Sunrisers Hyderabad/Abhishek Sharma.xlsx
+++ b/IPL/Sunrisers Hyderabad/Abhishek Sharma.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,28 +445,31 @@
         <v>Abhishek Sharma</v>
       </c>
       <c r="C2" t="str">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D2" t="str">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E2" t="str">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="str">
-        <v>154.76</v>
+        <v>188.23</v>
       </c>
       <c r="H2" t="str">
-        <v>Gujarat Titans</v>
+        <v>Kolkata Knight Riders</v>
       </c>
       <c r="I2" t="str">
-        <v>Wankhede</v>
+        <v>Eden Gardens</v>
       </c>
       <c r="J2" t="str">
-        <v>April 27 2022</v>
+        <v>April 14 2023</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -477,28 +480,31 @@
         <v>Abhishek Sharma</v>
       </c>
       <c r="C3" t="str">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D3" t="str">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E3" t="str">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="str">
-        <v>134.37</v>
+        <v>130.76</v>
       </c>
       <c r="H3" t="str">
-        <v>Punjab Kings</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I3" t="str">
-        <v>Wankhede</v>
+        <v>Chennai</v>
       </c>
       <c r="J3" t="str">
-        <v>May 22 2022</v>
+        <v>April 21 2023</v>
+      </c>
+      <c r="K3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -509,28 +515,31 @@
         <v>Abhishek Sharma</v>
       </c>
       <c r="C4" t="str">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="str">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="str">
         <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>90.00</v>
+        <v>78.57</v>
       </c>
       <c r="H4" t="str">
-        <v>Mumbai Indians</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I4" t="str">
-        <v>Wankhede</v>
+        <v>Hyderabad</v>
       </c>
       <c r="J4" t="str">
-        <v>May 17 2022</v>
+        <v>May 18 2023</v>
+      </c>
+      <c r="K4" t="str">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -541,31 +550,31 @@
         <v>Abhishek Sharma</v>
       </c>
       <c r="C5" t="str">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D5" t="str">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E5" t="str">
+        <v>12</v>
+      </c>
+      <c r="F5" t="str">
         <v>1</v>
       </c>
-      <c r="F5" t="str">
-        <v>0</v>
-      </c>
       <c r="G5" t="str">
-        <v>90.00</v>
+        <v>186.11</v>
       </c>
       <c r="H5" t="str">
-        <v>Mumbai Indians</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I5" t="str">
-        <v>Wankhede</v>
+        <v>Delhi</v>
       </c>
       <c r="J5" t="str">
-        <v>May 17 2022</v>
+        <v>April 29 2023</v>
       </c>
       <c r="K5" t="str">
-        <v>Sunrisers won by 3 runs</v>
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -576,71 +585,36 @@
         <v>Abhishek Sharma</v>
       </c>
       <c r="C6" t="str">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D6" t="str">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E6" t="str">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="str">
-        <v>134.37</v>
+        <v>140.00</v>
       </c>
       <c r="H6" t="str">
-        <v>Punjab Kings</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I6" t="str">
-        <v>Wankhede</v>
+        <v>Hyderabad</v>
       </c>
       <c r="J6" t="str">
-        <v>May 22 2022</v>
+        <v>May 13 2023</v>
       </c>
       <c r="K6" t="str">
-        <v>Punjab Kings won by 5 wickets (with 29 balls remaining)</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Sunrisers Hyderabad</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Abhishek Sharma</v>
-      </c>
-      <c r="C7" t="str">
-        <v>65</v>
-      </c>
-      <c r="D7" t="str">
-        <v>42</v>
-      </c>
-      <c r="E7" t="str">
-        <v>6</v>
-      </c>
-      <c r="F7" t="str">
-        <v>3</v>
-      </c>
-      <c r="G7" t="str">
-        <v>154.76</v>
-      </c>
-      <c r="H7" t="str">
-        <v>Gujarat Titans</v>
-      </c>
-      <c r="I7" t="str">
-        <v>Wankhede</v>
-      </c>
-      <c r="J7" t="str">
-        <v>April 27 2022</v>
-      </c>
-      <c r="K7" t="str">
-        <v>Titans won by 5 wickets (with 0 balls remaining)</v>
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
   </ignoredErrors>
 </worksheet>
 </file>